--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\python\maths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F385E010-5931-4BBD-BFE2-AA227C866792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A082DF9F-C63D-4EEC-9751-31DE4EFC26C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{60315A4A-3910-4112-8345-B96CA8C9ACF2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Линейное y = ax + b" sheetId="1" r:id="rId1"/>
+    <sheet name="1 Линейное y = ax + b" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,10 +28,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,7 +381,7 @@
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,1501 +392,1501 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <f xml:space="preserve"> B1 * C1 + D1</f>
-        <v>242</v>
+        <v>3235</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C1">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D1">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A65" si="0" xml:space="preserve"> B2 * C2 + D2</f>
-        <v>275</v>
+        <v>3350</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>3467</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>3586</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>386</v>
+        <v>3707</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>427</v>
+        <v>3830</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>470</v>
+        <v>3955</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>515</v>
+        <v>4082</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>562</v>
+        <v>4211</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>611</v>
+        <v>4342</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>662</v>
+        <v>4475</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>715</v>
+        <v>4610</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>770</v>
+        <v>4747</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D13">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>827</v>
+        <v>4886</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>886</v>
+        <v>5027</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D15">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>947</v>
+        <v>5170</v>
       </c>
       <c r="B16">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D16">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>1010</v>
+        <v>5315</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C17">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D17">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>1075</v>
+        <v>5462</v>
       </c>
       <c r="B18">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D18">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>1142</v>
+        <v>5611</v>
       </c>
       <c r="B19">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C19">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>1211</v>
+        <v>5762</v>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D20">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>1282</v>
+        <v>5915</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C21">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D21">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>1355</v>
+        <v>6070</v>
       </c>
       <c r="B22">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C22">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D22">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>1430</v>
+        <v>6227</v>
       </c>
       <c r="B23">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C23">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D23">
-        <v>54</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>1507</v>
+        <v>6386</v>
       </c>
       <c r="B24">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C24">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D24">
-        <v>55</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>1586</v>
+        <v>6547</v>
       </c>
       <c r="B25">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C25">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="D25">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>1667</v>
+        <v>6710</v>
       </c>
       <c r="B26">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C26">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D26">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>1750</v>
+        <v>6875</v>
       </c>
       <c r="B27">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C27">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D27">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>1835</v>
+        <v>7042</v>
       </c>
       <c r="B28">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C28">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D28">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>1922</v>
+        <v>7211</v>
       </c>
       <c r="B29">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C29">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>2011</v>
+        <v>7382</v>
       </c>
       <c r="B30">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C30">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D30">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>2102</v>
+        <v>7555</v>
       </c>
       <c r="B31">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C31">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D31">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>2195</v>
+        <v>7730</v>
       </c>
       <c r="B32">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C32">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="D32">
-        <v>63</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>2290</v>
+        <v>7907</v>
       </c>
       <c r="B33">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C33">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="D33">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>2387</v>
+        <v>8086</v>
       </c>
       <c r="B34">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C34">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="D34">
-        <v>65</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>2486</v>
+        <v>8267</v>
       </c>
       <c r="B35">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C35">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="D35">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>2587</v>
+        <v>8450</v>
       </c>
       <c r="B36">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C36">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="D36">
-        <v>67</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>2690</v>
+        <v>8635</v>
       </c>
       <c r="B37">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C37">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D37">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>2795</v>
+        <v>8822</v>
       </c>
       <c r="B38">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C38">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="D38">
-        <v>69</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>2902</v>
+        <v>9011</v>
       </c>
       <c r="B39">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C39">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D39">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>3011</v>
+        <v>9202</v>
       </c>
       <c r="B40">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C40">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="D40">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>3122</v>
+        <v>9395</v>
       </c>
       <c r="B41">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C41">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="D41">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>3235</v>
+        <v>9590</v>
       </c>
       <c r="B42">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C42">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D42">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>3350</v>
+        <v>9787</v>
       </c>
       <c r="B43">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C43">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="D43">
-        <v>74</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>3467</v>
+        <v>9986</v>
       </c>
       <c r="B44">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C44">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D44">
-        <v>75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>3586</v>
+        <v>10187</v>
       </c>
       <c r="B45">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C45">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="D45">
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>3707</v>
+        <v>10390</v>
       </c>
       <c r="B46">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C46">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="D46">
-        <v>77</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>3830</v>
+        <v>10595</v>
       </c>
       <c r="B47">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C47">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="D47">
-        <v>78</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>3955</v>
+        <v>10802</v>
       </c>
       <c r="B48">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C48">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D48">
-        <v>79</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>4082</v>
+        <v>11011</v>
       </c>
       <c r="B49">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C49">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="D49">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>4211</v>
+        <v>11222</v>
       </c>
       <c r="B50">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C50">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="D50">
-        <v>81</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
-        <v>4342</v>
+        <v>11435</v>
       </c>
       <c r="B51">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C51">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="D51">
-        <v>82</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
-        <v>4475</v>
+        <v>11650</v>
       </c>
       <c r="B52">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C52">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D52">
-        <v>83</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
-        <v>4610</v>
+        <v>11867</v>
       </c>
       <c r="B53">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C53">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D53">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
-        <v>4747</v>
+        <v>12086</v>
       </c>
       <c r="B54">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C54">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D54">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
-        <v>4886</v>
+        <v>12307</v>
       </c>
       <c r="B55">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C55">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="D55">
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
-        <v>5027</v>
+        <v>12530</v>
       </c>
       <c r="B56">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C56">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D56">
-        <v>87</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
-        <v>5170</v>
+        <v>12755</v>
       </c>
       <c r="B57">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C57">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D57">
-        <v>88</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
-        <v>5315</v>
+        <v>12982</v>
       </c>
       <c r="B58">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C58">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="D58">
-        <v>89</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
-        <v>5462</v>
+        <v>13211</v>
       </c>
       <c r="B59">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C59">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="D59">
-        <v>90</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
-        <v>5611</v>
+        <v>13442</v>
       </c>
       <c r="B60">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C60">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="D60">
-        <v>91</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
-        <v>5762</v>
+        <v>13675</v>
       </c>
       <c r="B61">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C61">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="D61">
-        <v>92</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
-        <v>5915</v>
+        <v>13910</v>
       </c>
       <c r="B62">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C62">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="D62">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
-        <v>6070</v>
+        <v>14147</v>
       </c>
       <c r="B63">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="C63">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="D63">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
-        <v>6227</v>
+        <v>14386</v>
       </c>
       <c r="B64">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C64">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="D64">
-        <v>95</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
-        <v>6386</v>
+        <v>14627</v>
       </c>
       <c r="B65">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="C65">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="D65">
-        <v>96</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ref="A66:A100" si="1" xml:space="preserve"> B66 * C66 + D66</f>
-        <v>6547</v>
+        <v>14870</v>
       </c>
       <c r="B66">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="C66">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="D66">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="1"/>
-        <v>6710</v>
+        <v>15115</v>
       </c>
       <c r="B67">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="C67">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="D67">
-        <v>98</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="1"/>
-        <v>6875</v>
+        <v>15362</v>
       </c>
       <c r="B68">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="C68">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="D68">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
-        <v>7042</v>
+        <v>15611</v>
       </c>
       <c r="B69">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C69">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="D69">
-        <v>100</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
-        <v>7211</v>
+        <v>15862</v>
       </c>
       <c r="B70">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C70">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="D70">
-        <v>101</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
-        <v>7382</v>
+        <v>16115</v>
       </c>
       <c r="B71">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="C71">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="D71">
-        <v>102</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
-        <v>7555</v>
+        <v>16370</v>
       </c>
       <c r="B72">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C72">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="D72">
-        <v>103</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
-        <v>7730</v>
+        <v>16627</v>
       </c>
       <c r="B73">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C73">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="D73">
-        <v>104</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
-        <v>7907</v>
+        <v>16886</v>
       </c>
       <c r="B74">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C74">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="D74">
-        <v>105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
-        <v>8086</v>
+        <v>17147</v>
       </c>
       <c r="B75">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C75">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="D75">
-        <v>106</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
-        <v>8267</v>
+        <v>17410</v>
       </c>
       <c r="B76">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C76">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="D76">
-        <v>107</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
-        <v>8450</v>
+        <v>17675</v>
       </c>
       <c r="B77">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="C77">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="D77">
-        <v>108</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
-        <v>8635</v>
+        <v>17942</v>
       </c>
       <c r="B78">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C78">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="D78">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
-        <v>8822</v>
+        <v>18211</v>
       </c>
       <c r="B79">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C79">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="D79">
-        <v>110</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
-        <v>9011</v>
+        <v>18482</v>
       </c>
       <c r="B80">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="C80">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D80">
-        <v>111</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
-        <v>9202</v>
+        <v>18755</v>
       </c>
       <c r="B81">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="C81">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="D81">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
-        <v>9395</v>
+        <v>19030</v>
       </c>
       <c r="B82">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="C82">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="D82">
-        <v>113</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
-        <v>9590</v>
+        <v>19307</v>
       </c>
       <c r="B83">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C83">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="D83">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
-        <v>9787</v>
+        <v>19586</v>
       </c>
       <c r="B84">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="C84">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="D84">
-        <v>115</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
-        <v>9986</v>
+        <v>19867</v>
       </c>
       <c r="B85">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="C85">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="D85">
-        <v>116</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
-        <v>10187</v>
+        <v>20150</v>
       </c>
       <c r="B86">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C86">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="D86">
-        <v>117</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
-        <v>10390</v>
+        <v>20435</v>
       </c>
       <c r="B87">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="C87">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="D87">
-        <v>118</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
-        <v>10595</v>
+        <v>20722</v>
       </c>
       <c r="B88">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C88">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="D88">
-        <v>119</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
-        <v>10802</v>
+        <v>21011</v>
       </c>
       <c r="B89">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C89">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="D89">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
-        <v>11011</v>
+        <v>21302</v>
       </c>
       <c r="B90">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="C90">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="D90">
-        <v>121</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
-        <v>11222</v>
+        <v>21595</v>
       </c>
       <c r="B91">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="C91">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="D91">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
-        <v>11435</v>
+        <v>21890</v>
       </c>
       <c r="B92">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="C92">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="D92">
-        <v>123</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
-        <v>11650</v>
+        <v>22187</v>
       </c>
       <c r="B93">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="C93">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="D93">
-        <v>124</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
-        <v>11867</v>
+        <v>22486</v>
       </c>
       <c r="B94">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C94">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="D94">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
-        <v>12086</v>
+        <v>22787</v>
       </c>
       <c r="B95">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="C95">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="D95">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
-        <v>12307</v>
+        <v>23090</v>
       </c>
       <c r="B96">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="C96">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="D96">
-        <v>127</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
-        <v>12530</v>
+        <v>23395</v>
       </c>
       <c r="B97">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="C97">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="D97">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
-        <v>12755</v>
+        <v>23702</v>
       </c>
       <c r="B98">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="C98">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D98">
-        <v>129</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
-        <v>12982</v>
+        <v>24011</v>
       </c>
       <c r="B99">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="C99">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="D99">
-        <v>130</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
-        <v>13211</v>
+        <v>24322</v>
       </c>
       <c r="B100">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C100">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="D100">
-        <v>131</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\python\maths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A082DF9F-C63D-4EEC-9751-31DE4EFC26C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1831340-341D-4AD3-9512-879789B41575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{60315A4A-3910-4112-8345-B96CA8C9ACF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{60315A4A-3910-4112-8345-B96CA8C9ACF2}"/>
   </bookViews>
   <sheets>
-    <sheet name="1 Линейное y = ax + b" sheetId="1" r:id="rId1"/>
+    <sheet name="1 Линейное" sheetId="1" r:id="rId1"/>
+    <sheet name="2 Теорема пифагора" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,6 +29,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA00E4B-DA32-4FD4-A945-0268B25AEA8D}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,4 +1897,4353 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B32AAEA-19E1-4F2D-817F-CDD40BD31D29}">
+  <dimension ref="A1:C394"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="L109" sqref="L109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>58</v>
+      </c>
+      <c r="B25">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>60</v>
+      </c>
+      <c r="B26">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>61</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>65</v>
+      </c>
+      <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>65</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>65</v>
+      </c>
+      <c r="B31">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>73</v>
+      </c>
+      <c r="B34">
+        <v>48</v>
+      </c>
+      <c r="C34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>74</v>
+      </c>
+      <c r="B35">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>75</v>
+      </c>
+      <c r="B36">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>75</v>
+      </c>
+      <c r="B37">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>78</v>
+      </c>
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>80</v>
+      </c>
+      <c r="B39">
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>82</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>85</v>
+      </c>
+      <c r="B41">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>85</v>
+      </c>
+      <c r="B42">
+        <v>36</v>
+      </c>
+      <c r="C42">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>85</v>
+      </c>
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>85</v>
+      </c>
+      <c r="B44">
+        <v>51</v>
+      </c>
+      <c r="C44">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>87</v>
+      </c>
+      <c r="B45">
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>89</v>
+      </c>
+      <c r="B46">
+        <v>39</v>
+      </c>
+      <c r="C46">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>90</v>
+      </c>
+      <c r="B47">
+        <v>54</v>
+      </c>
+      <c r="C47">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>91</v>
+      </c>
+      <c r="B48">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>95</v>
+      </c>
+      <c r="B49">
+        <v>57</v>
+      </c>
+      <c r="C49">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>97</v>
+      </c>
+      <c r="B50">
+        <v>65</v>
+      </c>
+      <c r="C50">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>100</v>
+      </c>
+      <c r="B51">
+        <v>28</v>
+      </c>
+      <c r="C51">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>100</v>
+      </c>
+      <c r="B52">
+        <v>60</v>
+      </c>
+      <c r="C52">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>101</v>
+      </c>
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>102</v>
+      </c>
+      <c r="B54">
+        <v>48</v>
+      </c>
+      <c r="C54">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>104</v>
+      </c>
+      <c r="B55">
+        <v>40</v>
+      </c>
+      <c r="C55">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>105</v>
+      </c>
+      <c r="B56">
+        <v>63</v>
+      </c>
+      <c r="C56">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>106</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>109</v>
+      </c>
+      <c r="B58">
+        <v>60</v>
+      </c>
+      <c r="C58">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>110</v>
+      </c>
+      <c r="B59">
+        <v>66</v>
+      </c>
+      <c r="C59">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>111</v>
+      </c>
+      <c r="B60">
+        <v>36</v>
+      </c>
+      <c r="C60">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>113</v>
+      </c>
+      <c r="B61">
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>115</v>
+      </c>
+      <c r="B62">
+        <v>69</v>
+      </c>
+      <c r="C62">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>116</v>
+      </c>
+      <c r="B63">
+        <v>80</v>
+      </c>
+      <c r="C63">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>117</v>
+      </c>
+      <c r="B64">
+        <v>45</v>
+      </c>
+      <c r="C64">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>119</v>
+      </c>
+      <c r="B65">
+        <v>56</v>
+      </c>
+      <c r="C65">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>120</v>
+      </c>
+      <c r="B66">
+        <v>72</v>
+      </c>
+      <c r="C66">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>122</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+      <c r="C67">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>123</v>
+      </c>
+      <c r="B68">
+        <v>27</v>
+      </c>
+      <c r="C68">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>125</v>
+      </c>
+      <c r="B69">
+        <v>35</v>
+      </c>
+      <c r="C69">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>125</v>
+      </c>
+      <c r="B70">
+        <v>44</v>
+      </c>
+      <c r="C70">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>125</v>
+      </c>
+      <c r="B71">
+        <v>75</v>
+      </c>
+      <c r="C71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>130</v>
+      </c>
+      <c r="B72">
+        <v>32</v>
+      </c>
+      <c r="C72">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>130</v>
+      </c>
+      <c r="B73">
+        <v>50</v>
+      </c>
+      <c r="C73">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>130</v>
+      </c>
+      <c r="B74">
+        <v>66</v>
+      </c>
+      <c r="C74">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>130</v>
+      </c>
+      <c r="B75">
+        <v>78</v>
+      </c>
+      <c r="C75">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>135</v>
+      </c>
+      <c r="B76">
+        <v>81</v>
+      </c>
+      <c r="C76">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>136</v>
+      </c>
+      <c r="B77">
+        <v>64</v>
+      </c>
+      <c r="C77">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>137</v>
+      </c>
+      <c r="B78">
+        <v>88</v>
+      </c>
+      <c r="C78">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>140</v>
+      </c>
+      <c r="B79">
+        <v>84</v>
+      </c>
+      <c r="C79">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>143</v>
+      </c>
+      <c r="B80">
+        <v>55</v>
+      </c>
+      <c r="C80">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>145</v>
+      </c>
+      <c r="B81">
+        <v>17</v>
+      </c>
+      <c r="C81">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>145</v>
+      </c>
+      <c r="B82">
+        <v>24</v>
+      </c>
+      <c r="C82">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>145</v>
+      </c>
+      <c r="B83">
+        <v>87</v>
+      </c>
+      <c r="C83">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>145</v>
+      </c>
+      <c r="B84">
+        <v>100</v>
+      </c>
+      <c r="C84">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>146</v>
+      </c>
+      <c r="B85">
+        <v>96</v>
+      </c>
+      <c r="C85">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>148</v>
+      </c>
+      <c r="B86">
+        <v>48</v>
+      </c>
+      <c r="C86">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>149</v>
+      </c>
+      <c r="B87">
+        <v>51</v>
+      </c>
+      <c r="C87">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>150</v>
+      </c>
+      <c r="B88">
+        <v>42</v>
+      </c>
+      <c r="C88">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>150</v>
+      </c>
+      <c r="B89">
+        <v>90</v>
+      </c>
+      <c r="C89">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>153</v>
+      </c>
+      <c r="B90">
+        <v>72</v>
+      </c>
+      <c r="C90">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>155</v>
+      </c>
+      <c r="B91">
+        <v>93</v>
+      </c>
+      <c r="C91">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>156</v>
+      </c>
+      <c r="B92">
+        <v>60</v>
+      </c>
+      <c r="C92">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>157</v>
+      </c>
+      <c r="B93">
+        <v>85</v>
+      </c>
+      <c r="C93">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>159</v>
+      </c>
+      <c r="B94">
+        <v>84</v>
+      </c>
+      <c r="C94">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>160</v>
+      </c>
+      <c r="B95">
+        <v>96</v>
+      </c>
+      <c r="C95">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>164</v>
+      </c>
+      <c r="B96">
+        <v>36</v>
+      </c>
+      <c r="C96">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>165</v>
+      </c>
+      <c r="B97">
+        <v>99</v>
+      </c>
+      <c r="C97">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>169</v>
+      </c>
+      <c r="B98">
+        <v>65</v>
+      </c>
+      <c r="C98">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>169</v>
+      </c>
+      <c r="B99">
+        <v>119</v>
+      </c>
+      <c r="C99">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>170</v>
+      </c>
+      <c r="B100">
+        <v>26</v>
+      </c>
+      <c r="C100">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>170</v>
+      </c>
+      <c r="B101">
+        <v>72</v>
+      </c>
+      <c r="C101">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>170</v>
+      </c>
+      <c r="B102">
+        <v>80</v>
+      </c>
+      <c r="C102">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>170</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>173</v>
+      </c>
+      <c r="B104">
+        <v>52</v>
+      </c>
+      <c r="C104">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>174</v>
+      </c>
+      <c r="B105">
+        <v>120</v>
+      </c>
+      <c r="C105">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>175</v>
+      </c>
+      <c r="B106">
+        <v>49</v>
+      </c>
+      <c r="C106">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>175</v>
+      </c>
+      <c r="B107">
+        <v>105</v>
+      </c>
+      <c r="C107">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>178</v>
+      </c>
+      <c r="B108">
+        <v>78</v>
+      </c>
+      <c r="C108">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>180</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>181</v>
+      </c>
+      <c r="B110">
+        <v>19</v>
+      </c>
+      <c r="C110">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>182</v>
+      </c>
+      <c r="B111">
+        <v>70</v>
+      </c>
+      <c r="C111">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>183</v>
+      </c>
+      <c r="B112">
+        <v>33</v>
+      </c>
+      <c r="C112">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>185</v>
+      </c>
+      <c r="B113">
+        <v>57</v>
+      </c>
+      <c r="C113">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>185</v>
+      </c>
+      <c r="B114">
+        <v>60</v>
+      </c>
+      <c r="C114">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>185</v>
+      </c>
+      <c r="B115">
+        <v>104</v>
+      </c>
+      <c r="C115">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>185</v>
+      </c>
+      <c r="B116">
+        <v>111</v>
+      </c>
+      <c r="C116">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>187</v>
+      </c>
+      <c r="B117">
+        <v>88</v>
+      </c>
+      <c r="C117">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>190</v>
+      </c>
+      <c r="B118">
+        <v>114</v>
+      </c>
+      <c r="C118">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>193</v>
+      </c>
+      <c r="B119">
+        <v>95</v>
+      </c>
+      <c r="C119">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>194</v>
+      </c>
+      <c r="B120">
+        <v>130</v>
+      </c>
+      <c r="C120">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>195</v>
+      </c>
+      <c r="B121">
+        <v>48</v>
+      </c>
+      <c r="C121">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>195</v>
+      </c>
+      <c r="B122">
+        <v>75</v>
+      </c>
+      <c r="C122">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>195</v>
+      </c>
+      <c r="B123">
+        <v>99</v>
+      </c>
+      <c r="C123">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>195</v>
+      </c>
+      <c r="B124">
+        <v>117</v>
+      </c>
+      <c r="C124">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>197</v>
+      </c>
+      <c r="B125">
+        <v>28</v>
+      </c>
+      <c r="C125">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>200</v>
+      </c>
+      <c r="B126">
+        <v>56</v>
+      </c>
+      <c r="C126">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>200</v>
+      </c>
+      <c r="B127">
+        <v>120</v>
+      </c>
+      <c r="C127">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>202</v>
+      </c>
+      <c r="B128">
+        <v>40</v>
+      </c>
+      <c r="C128">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>203</v>
+      </c>
+      <c r="B129">
+        <v>140</v>
+      </c>
+      <c r="C129">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>204</v>
+      </c>
+      <c r="B130">
+        <v>96</v>
+      </c>
+      <c r="C130">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>205</v>
+      </c>
+      <c r="B131">
+        <v>45</v>
+      </c>
+      <c r="C131">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>205</v>
+      </c>
+      <c r="B132">
+        <v>84</v>
+      </c>
+      <c r="C132">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>205</v>
+      </c>
+      <c r="B133">
+        <v>123</v>
+      </c>
+      <c r="C133">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>205</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>208</v>
+      </c>
+      <c r="B135">
+        <v>80</v>
+      </c>
+      <c r="C135">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>210</v>
+      </c>
+      <c r="B136">
+        <v>126</v>
+      </c>
+      <c r="C136">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>212</v>
+      </c>
+      <c r="B137">
+        <v>112</v>
+      </c>
+      <c r="C137">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>215</v>
+      </c>
+      <c r="B138">
+        <v>129</v>
+      </c>
+      <c r="C138">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>218</v>
+      </c>
+      <c r="B139">
+        <v>120</v>
+      </c>
+      <c r="C139">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>219</v>
+      </c>
+      <c r="B140">
+        <v>144</v>
+      </c>
+      <c r="C140">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>220</v>
+      </c>
+      <c r="B141">
+        <v>132</v>
+      </c>
+      <c r="C141">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>221</v>
+      </c>
+      <c r="B142">
+        <v>21</v>
+      </c>
+      <c r="C142">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>221</v>
+      </c>
+      <c r="B143">
+        <v>85</v>
+      </c>
+      <c r="C143">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>221</v>
+      </c>
+      <c r="B144">
+        <v>104</v>
+      </c>
+      <c r="C144">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>221</v>
+      </c>
+      <c r="B145">
+        <v>140</v>
+      </c>
+      <c r="C145">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>222</v>
+      </c>
+      <c r="B146">
+        <v>72</v>
+      </c>
+      <c r="C146">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>225</v>
+      </c>
+      <c r="B147">
+        <v>63</v>
+      </c>
+      <c r="C147">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>225</v>
+      </c>
+      <c r="B148">
+        <v>135</v>
+      </c>
+      <c r="C148">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>226</v>
+      </c>
+      <c r="B149">
+        <v>30</v>
+      </c>
+      <c r="C149">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>229</v>
+      </c>
+      <c r="B150">
+        <v>60</v>
+      </c>
+      <c r="C150">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>230</v>
+      </c>
+      <c r="B151">
+        <v>138</v>
+      </c>
+      <c r="C151">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>232</v>
+      </c>
+      <c r="B152">
+        <v>160</v>
+      </c>
+      <c r="C152">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>233</v>
+      </c>
+      <c r="B153">
+        <v>105</v>
+      </c>
+      <c r="C153">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>234</v>
+      </c>
+      <c r="B154">
+        <v>90</v>
+      </c>
+      <c r="C154">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>235</v>
+      </c>
+      <c r="B155">
+        <v>141</v>
+      </c>
+      <c r="C155">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>238</v>
+      </c>
+      <c r="B156">
+        <v>112</v>
+      </c>
+      <c r="C156">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>240</v>
+      </c>
+      <c r="B157">
+        <v>144</v>
+      </c>
+      <c r="C157">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>241</v>
+      </c>
+      <c r="B158">
+        <v>120</v>
+      </c>
+      <c r="C158">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>244</v>
+      </c>
+      <c r="B159">
+        <v>44</v>
+      </c>
+      <c r="C159">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>245</v>
+      </c>
+      <c r="B160">
+        <v>147</v>
+      </c>
+      <c r="C160">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>246</v>
+      </c>
+      <c r="B161">
+        <v>54</v>
+      </c>
+      <c r="C161">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>247</v>
+      </c>
+      <c r="B162">
+        <v>95</v>
+      </c>
+      <c r="C162">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>250</v>
+      </c>
+      <c r="B163">
+        <v>70</v>
+      </c>
+      <c r="C163">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>250</v>
+      </c>
+      <c r="B164">
+        <v>88</v>
+      </c>
+      <c r="C164">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>250</v>
+      </c>
+      <c r="B165">
+        <v>150</v>
+      </c>
+      <c r="C165">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>255</v>
+      </c>
+      <c r="B166">
+        <v>39</v>
+      </c>
+      <c r="C166">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>255</v>
+      </c>
+      <c r="B167">
+        <v>108</v>
+      </c>
+      <c r="C167">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>255</v>
+      </c>
+      <c r="B168">
+        <v>120</v>
+      </c>
+      <c r="C168">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>255</v>
+      </c>
+      <c r="B169">
+        <v>153</v>
+      </c>
+      <c r="C169">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>257</v>
+      </c>
+      <c r="B170">
+        <v>32</v>
+      </c>
+      <c r="C170">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>259</v>
+      </c>
+      <c r="B171">
+        <v>84</v>
+      </c>
+      <c r="C171">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>260</v>
+      </c>
+      <c r="B172">
+        <v>64</v>
+      </c>
+      <c r="C172">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>260</v>
+      </c>
+      <c r="B173">
+        <v>100</v>
+      </c>
+      <c r="C173">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>260</v>
+      </c>
+      <c r="B174">
+        <v>132</v>
+      </c>
+      <c r="C174">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>260</v>
+      </c>
+      <c r="B175">
+        <v>156</v>
+      </c>
+      <c r="C175">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>261</v>
+      </c>
+      <c r="B176">
+        <v>180</v>
+      </c>
+      <c r="C176">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>265</v>
+      </c>
+      <c r="B177">
+        <v>23</v>
+      </c>
+      <c r="C177">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>265</v>
+      </c>
+      <c r="B178">
+        <v>96</v>
+      </c>
+      <c r="C178">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>265</v>
+      </c>
+      <c r="B179">
+        <v>140</v>
+      </c>
+      <c r="C179">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>265</v>
+      </c>
+      <c r="B180">
+        <v>159</v>
+      </c>
+      <c r="C180">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>267</v>
+      </c>
+      <c r="B181">
+        <v>117</v>
+      </c>
+      <c r="C181">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>269</v>
+      </c>
+      <c r="B182">
+        <v>69</v>
+      </c>
+      <c r="C182">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>270</v>
+      </c>
+      <c r="B183">
+        <v>162</v>
+      </c>
+      <c r="C183">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>272</v>
+      </c>
+      <c r="B184">
+        <v>128</v>
+      </c>
+      <c r="C184">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>273</v>
+      </c>
+      <c r="B185">
+        <v>105</v>
+      </c>
+      <c r="C185">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>274</v>
+      </c>
+      <c r="B186">
+        <v>176</v>
+      </c>
+      <c r="C186">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>275</v>
+      </c>
+      <c r="B187">
+        <v>77</v>
+      </c>
+      <c r="C187">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>275</v>
+      </c>
+      <c r="B188">
+        <v>165</v>
+      </c>
+      <c r="C188">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>277</v>
+      </c>
+      <c r="B189">
+        <v>115</v>
+      </c>
+      <c r="C189">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>280</v>
+      </c>
+      <c r="B190">
+        <v>168</v>
+      </c>
+      <c r="C190">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>281</v>
+      </c>
+      <c r="B191">
+        <v>160</v>
+      </c>
+      <c r="C191">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>285</v>
+      </c>
+      <c r="B192">
+        <v>171</v>
+      </c>
+      <c r="C192">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>286</v>
+      </c>
+      <c r="B193">
+        <v>110</v>
+      </c>
+      <c r="C193">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>287</v>
+      </c>
+      <c r="B194">
+        <v>63</v>
+      </c>
+      <c r="C194">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>289</v>
+      </c>
+      <c r="B195">
+        <v>136</v>
+      </c>
+      <c r="C195">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>289</v>
+      </c>
+      <c r="B196">
+        <v>161</v>
+      </c>
+      <c r="C196">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>290</v>
+      </c>
+      <c r="B197">
+        <v>34</v>
+      </c>
+      <c r="C197">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>290</v>
+      </c>
+      <c r="B198">
+        <v>48</v>
+      </c>
+      <c r="C198">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>290</v>
+      </c>
+      <c r="B199">
+        <v>174</v>
+      </c>
+      <c r="C199">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>290</v>
+      </c>
+      <c r="B200">
+        <v>200</v>
+      </c>
+      <c r="C200">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>291</v>
+      </c>
+      <c r="B201">
+        <v>195</v>
+      </c>
+      <c r="C201">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>292</v>
+      </c>
+      <c r="B202">
+        <v>192</v>
+      </c>
+      <c r="C202">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>293</v>
+      </c>
+      <c r="B203">
+        <v>68</v>
+      </c>
+      <c r="C203">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>295</v>
+      </c>
+      <c r="B204">
+        <v>177</v>
+      </c>
+      <c r="C204">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>296</v>
+      </c>
+      <c r="B205">
+        <v>96</v>
+      </c>
+      <c r="C205">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>298</v>
+      </c>
+      <c r="B206">
+        <v>102</v>
+      </c>
+      <c r="C206">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>299</v>
+      </c>
+      <c r="B207">
+        <v>115</v>
+      </c>
+      <c r="C207">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>300</v>
+      </c>
+      <c r="B208">
+        <v>84</v>
+      </c>
+      <c r="C208">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>300</v>
+      </c>
+      <c r="B209">
+        <v>180</v>
+      </c>
+      <c r="C209">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>303</v>
+      </c>
+      <c r="B210">
+        <v>60</v>
+      </c>
+      <c r="C210">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>305</v>
+      </c>
+      <c r="B211">
+        <v>55</v>
+      </c>
+      <c r="C211">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>305</v>
+      </c>
+      <c r="B212">
+        <v>136</v>
+      </c>
+      <c r="C212">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>305</v>
+      </c>
+      <c r="B213">
+        <v>183</v>
+      </c>
+      <c r="C213">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>305</v>
+      </c>
+      <c r="B214">
+        <v>207</v>
+      </c>
+      <c r="C214">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>306</v>
+      </c>
+      <c r="B215">
+        <v>144</v>
+      </c>
+      <c r="C215">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>310</v>
+      </c>
+      <c r="B216">
+        <v>186</v>
+      </c>
+      <c r="C216">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>312</v>
+      </c>
+      <c r="B217">
+        <v>120</v>
+      </c>
+      <c r="C217">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>313</v>
+      </c>
+      <c r="B218">
+        <v>25</v>
+      </c>
+      <c r="C218">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>314</v>
+      </c>
+      <c r="B219">
+        <v>170</v>
+      </c>
+      <c r="C219">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>315</v>
+      </c>
+      <c r="B220">
+        <v>189</v>
+      </c>
+      <c r="C220">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>317</v>
+      </c>
+      <c r="B221">
+        <v>75</v>
+      </c>
+      <c r="C221">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>318</v>
+      </c>
+      <c r="B222">
+        <v>168</v>
+      </c>
+      <c r="C222">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>319</v>
+      </c>
+      <c r="B223">
+        <v>220</v>
+      </c>
+      <c r="C223">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>320</v>
+      </c>
+      <c r="B224">
+        <v>192</v>
+      </c>
+      <c r="C224">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>323</v>
+      </c>
+      <c r="B225">
+        <v>152</v>
+      </c>
+      <c r="C225">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>325</v>
+      </c>
+      <c r="B226">
+        <v>36</v>
+      </c>
+      <c r="C226">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>325</v>
+      </c>
+      <c r="B227">
+        <v>80</v>
+      </c>
+      <c r="C227">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>325</v>
+      </c>
+      <c r="B228">
+        <v>91</v>
+      </c>
+      <c r="C228">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>325</v>
+      </c>
+      <c r="B229">
+        <v>125</v>
+      </c>
+      <c r="C229">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>325</v>
+      </c>
+      <c r="B230">
+        <v>165</v>
+      </c>
+      <c r="C230">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>325</v>
+      </c>
+      <c r="B231">
+        <v>195</v>
+      </c>
+      <c r="C231">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>325</v>
+      </c>
+      <c r="B232">
+        <v>204</v>
+      </c>
+      <c r="C232">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>327</v>
+      </c>
+      <c r="B233">
+        <v>180</v>
+      </c>
+      <c r="C233">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>328</v>
+      </c>
+      <c r="B234">
+        <v>72</v>
+      </c>
+      <c r="C234">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>330</v>
+      </c>
+      <c r="B235">
+        <v>198</v>
+      </c>
+      <c r="C235">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>333</v>
+      </c>
+      <c r="B236">
+        <v>108</v>
+      </c>
+      <c r="C236">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>335</v>
+      </c>
+      <c r="B237">
+        <v>201</v>
+      </c>
+      <c r="C237">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>337</v>
+      </c>
+      <c r="B238">
+        <v>175</v>
+      </c>
+      <c r="C238">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>338</v>
+      </c>
+      <c r="B239">
+        <v>130</v>
+      </c>
+      <c r="C239">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>338</v>
+      </c>
+      <c r="B240">
+        <v>238</v>
+      </c>
+      <c r="C240">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>339</v>
+      </c>
+      <c r="B241">
+        <v>45</v>
+      </c>
+      <c r="C241">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>340</v>
+      </c>
+      <c r="B242">
+        <v>52</v>
+      </c>
+      <c r="C242">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>340</v>
+      </c>
+      <c r="B243">
+        <v>144</v>
+      </c>
+      <c r="C243">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>340</v>
+      </c>
+      <c r="B244">
+        <v>160</v>
+      </c>
+      <c r="C244">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>340</v>
+      </c>
+      <c r="B245">
+        <v>204</v>
+      </c>
+      <c r="C245">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>345</v>
+      </c>
+      <c r="B246">
+        <v>207</v>
+      </c>
+      <c r="C246">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>346</v>
+      </c>
+      <c r="B247">
+        <v>104</v>
+      </c>
+      <c r="C247">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>348</v>
+      </c>
+      <c r="B248">
+        <v>240</v>
+      </c>
+      <c r="C248">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>349</v>
+      </c>
+      <c r="B249">
+        <v>180</v>
+      </c>
+      <c r="C249">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>350</v>
+      </c>
+      <c r="B250">
+        <v>98</v>
+      </c>
+      <c r="C250">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>350</v>
+      </c>
+      <c r="B251">
+        <v>210</v>
+      </c>
+      <c r="C251">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>351</v>
+      </c>
+      <c r="B252">
+        <v>135</v>
+      </c>
+      <c r="C252">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>353</v>
+      </c>
+      <c r="B253">
+        <v>225</v>
+      </c>
+      <c r="C253">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>355</v>
+      </c>
+      <c r="B254">
+        <v>213</v>
+      </c>
+      <c r="C254">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>356</v>
+      </c>
+      <c r="B255">
+        <v>156</v>
+      </c>
+      <c r="C255">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>357</v>
+      </c>
+      <c r="B256">
+        <v>168</v>
+      </c>
+      <c r="C256">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>360</v>
+      </c>
+      <c r="B257">
+        <v>216</v>
+      </c>
+      <c r="C257">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>362</v>
+      </c>
+      <c r="B258">
+        <v>38</v>
+      </c>
+      <c r="C258">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>364</v>
+      </c>
+      <c r="B259">
+        <v>140</v>
+      </c>
+      <c r="C259">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>365</v>
+      </c>
+      <c r="B260">
+        <v>27</v>
+      </c>
+      <c r="C260">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>365</v>
+      </c>
+      <c r="B261">
+        <v>76</v>
+      </c>
+      <c r="C261">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>365</v>
+      </c>
+      <c r="B262">
+        <v>219</v>
+      </c>
+      <c r="C262">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>365</v>
+      </c>
+      <c r="B263">
+        <v>240</v>
+      </c>
+      <c r="C263">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>366</v>
+      </c>
+      <c r="B264">
+        <v>66</v>
+      </c>
+      <c r="C264">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>369</v>
+      </c>
+      <c r="B265">
+        <v>81</v>
+      </c>
+      <c r="C265">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>370</v>
+      </c>
+      <c r="B266">
+        <v>114</v>
+      </c>
+      <c r="C266">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>370</v>
+      </c>
+      <c r="B267">
+        <v>120</v>
+      </c>
+      <c r="C267">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>370</v>
+      </c>
+      <c r="B268">
+        <v>208</v>
+      </c>
+      <c r="C268">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>370</v>
+      </c>
+      <c r="B269">
+        <v>222</v>
+      </c>
+      <c r="C269">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>371</v>
+      </c>
+      <c r="B270">
+        <v>196</v>
+      </c>
+      <c r="C270">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>373</v>
+      </c>
+      <c r="B271">
+        <v>252</v>
+      </c>
+      <c r="C271">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>374</v>
+      </c>
+      <c r="B272">
+        <v>176</v>
+      </c>
+      <c r="C272">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>375</v>
+      </c>
+      <c r="B273">
+        <v>105</v>
+      </c>
+      <c r="C273">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>375</v>
+      </c>
+      <c r="B274">
+        <v>132</v>
+      </c>
+      <c r="C274">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>375</v>
+      </c>
+      <c r="B275">
+        <v>225</v>
+      </c>
+      <c r="C275">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>377</v>
+      </c>
+      <c r="B276">
+        <v>135</v>
+      </c>
+      <c r="C276">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>377</v>
+      </c>
+      <c r="B277">
+        <v>145</v>
+      </c>
+      <c r="C277">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>377</v>
+      </c>
+      <c r="B278">
+        <v>152</v>
+      </c>
+      <c r="C278">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>377</v>
+      </c>
+      <c r="B279">
+        <v>260</v>
+      </c>
+      <c r="C279">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>380</v>
+      </c>
+      <c r="B280">
+        <v>228</v>
+      </c>
+      <c r="C280">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>385</v>
+      </c>
+      <c r="B281">
+        <v>231</v>
+      </c>
+      <c r="C281">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>386</v>
+      </c>
+      <c r="B282">
+        <v>190</v>
+      </c>
+      <c r="C282">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>388</v>
+      </c>
+      <c r="B283">
+        <v>260</v>
+      </c>
+      <c r="C283">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>389</v>
+      </c>
+      <c r="B284">
+        <v>189</v>
+      </c>
+      <c r="C284">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>390</v>
+      </c>
+      <c r="B285">
+        <v>96</v>
+      </c>
+      <c r="C285">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>390</v>
+      </c>
+      <c r="B286">
+        <v>150</v>
+      </c>
+      <c r="C286">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>390</v>
+      </c>
+      <c r="B287">
+        <v>198</v>
+      </c>
+      <c r="C287">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>390</v>
+      </c>
+      <c r="B288">
+        <v>234</v>
+      </c>
+      <c r="C288">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>391</v>
+      </c>
+      <c r="B289">
+        <v>184</v>
+      </c>
+      <c r="C289">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>394</v>
+      </c>
+      <c r="B290">
+        <v>56</v>
+      </c>
+      <c r="C290">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>395</v>
+      </c>
+      <c r="B291">
+        <v>237</v>
+      </c>
+      <c r="C291">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>397</v>
+      </c>
+      <c r="B292">
+        <v>228</v>
+      </c>
+      <c r="C292">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>400</v>
+      </c>
+      <c r="B293">
+        <v>112</v>
+      </c>
+      <c r="C293">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>400</v>
+      </c>
+      <c r="B294">
+        <v>240</v>
+      </c>
+      <c r="C294">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>401</v>
+      </c>
+      <c r="B295">
+        <v>40</v>
+      </c>
+      <c r="C295">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>403</v>
+      </c>
+      <c r="B296">
+        <v>155</v>
+      </c>
+      <c r="C296">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>404</v>
+      </c>
+      <c r="B297">
+        <v>80</v>
+      </c>
+      <c r="C297">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>405</v>
+      </c>
+      <c r="B298">
+        <v>243</v>
+      </c>
+      <c r="C298">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>406</v>
+      </c>
+      <c r="B299">
+        <v>280</v>
+      </c>
+      <c r="C299">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>407</v>
+      </c>
+      <c r="B300">
+        <v>132</v>
+      </c>
+      <c r="C300">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>408</v>
+      </c>
+      <c r="B301">
+        <v>192</v>
+      </c>
+      <c r="C301">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>409</v>
+      </c>
+      <c r="B302">
+        <v>120</v>
+      </c>
+      <c r="C302">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>410</v>
+      </c>
+      <c r="B303">
+        <v>90</v>
+      </c>
+      <c r="C303">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>410</v>
+      </c>
+      <c r="B304">
+        <v>168</v>
+      </c>
+      <c r="C304">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>410</v>
+      </c>
+      <c r="B305">
+        <v>246</v>
+      </c>
+      <c r="C305">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>410</v>
+      </c>
+      <c r="B306">
+        <v>266</v>
+      </c>
+      <c r="C306">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>411</v>
+      </c>
+      <c r="B307">
+        <v>264</v>
+      </c>
+      <c r="C307">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>415</v>
+      </c>
+      <c r="B308">
+        <v>249</v>
+      </c>
+      <c r="C308">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>416</v>
+      </c>
+      <c r="B309">
+        <v>160</v>
+      </c>
+      <c r="C309">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>420</v>
+      </c>
+      <c r="B310">
+        <v>252</v>
+      </c>
+      <c r="C310">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>421</v>
+      </c>
+      <c r="B311">
+        <v>29</v>
+      </c>
+      <c r="C311">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>424</v>
+      </c>
+      <c r="B312">
+        <v>224</v>
+      </c>
+      <c r="C312">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>425</v>
+      </c>
+      <c r="B313">
+        <v>65</v>
+      </c>
+      <c r="C313">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>425</v>
+      </c>
+      <c r="B314">
+        <v>87</v>
+      </c>
+      <c r="C314">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>425</v>
+      </c>
+      <c r="B315">
+        <v>119</v>
+      </c>
+      <c r="C315">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>425</v>
+      </c>
+      <c r="B316">
+        <v>180</v>
+      </c>
+      <c r="C316">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>425</v>
+      </c>
+      <c r="B317">
+        <v>200</v>
+      </c>
+      <c r="C317">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>425</v>
+      </c>
+      <c r="B318">
+        <v>255</v>
+      </c>
+      <c r="C318">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>425</v>
+      </c>
+      <c r="B319">
+        <v>297</v>
+      </c>
+      <c r="C319">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>427</v>
+      </c>
+      <c r="B320">
+        <v>77</v>
+      </c>
+      <c r="C320">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>429</v>
+      </c>
+      <c r="B321">
+        <v>165</v>
+      </c>
+      <c r="C321">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>430</v>
+      </c>
+      <c r="B322">
+        <v>258</v>
+      </c>
+      <c r="C322">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>433</v>
+      </c>
+      <c r="B323">
+        <v>145</v>
+      </c>
+      <c r="C323">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>435</v>
+      </c>
+      <c r="B324">
+        <v>51</v>
+      </c>
+      <c r="C324">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>435</v>
+      </c>
+      <c r="B325">
+        <v>72</v>
+      </c>
+      <c r="C325">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>435</v>
+      </c>
+      <c r="B326">
+        <v>261</v>
+      </c>
+      <c r="C326">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>435</v>
+      </c>
+      <c r="B327">
+        <v>300</v>
+      </c>
+      <c r="C327">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>436</v>
+      </c>
+      <c r="B328">
+        <v>240</v>
+      </c>
+      <c r="C328">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>438</v>
+      </c>
+      <c r="B329">
+        <v>288</v>
+      </c>
+      <c r="C329">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>440</v>
+      </c>
+      <c r="B330">
+        <v>264</v>
+      </c>
+      <c r="C330">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>442</v>
+      </c>
+      <c r="B331">
+        <v>42</v>
+      </c>
+      <c r="C331">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>442</v>
+      </c>
+      <c r="B332">
+        <v>170</v>
+      </c>
+      <c r="C332">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>442</v>
+      </c>
+      <c r="B333">
+        <v>208</v>
+      </c>
+      <c r="C333">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>442</v>
+      </c>
+      <c r="B334">
+        <v>280</v>
+      </c>
+      <c r="C334">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>444</v>
+      </c>
+      <c r="B335">
+        <v>144</v>
+      </c>
+      <c r="C335">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>445</v>
+      </c>
+      <c r="B336">
+        <v>84</v>
+      </c>
+      <c r="C336">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>445</v>
+      </c>
+      <c r="B337">
+        <v>195</v>
+      </c>
+      <c r="C337">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>445</v>
+      </c>
+      <c r="B338">
+        <v>203</v>
+      </c>
+      <c r="C338">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>445</v>
+      </c>
+      <c r="B339">
+        <v>267</v>
+      </c>
+      <c r="C339">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>447</v>
+      </c>
+      <c r="B340">
+        <v>153</v>
+      </c>
+      <c r="C340">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>449</v>
+      </c>
+      <c r="B341">
+        <v>280</v>
+      </c>
+      <c r="C341">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>450</v>
+      </c>
+      <c r="B342">
+        <v>126</v>
+      </c>
+      <c r="C342">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>450</v>
+      </c>
+      <c r="B343">
+        <v>270</v>
+      </c>
+      <c r="C343">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>451</v>
+      </c>
+      <c r="B344">
+        <v>99</v>
+      </c>
+      <c r="C344">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>452</v>
+      </c>
+      <c r="B345">
+        <v>60</v>
+      </c>
+      <c r="C345">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>455</v>
+      </c>
+      <c r="B346">
+        <v>112</v>
+      </c>
+      <c r="C346">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>455</v>
+      </c>
+      <c r="B347">
+        <v>175</v>
+      </c>
+      <c r="C347">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>455</v>
+      </c>
+      <c r="B348">
+        <v>231</v>
+      </c>
+      <c r="C348">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>455</v>
+      </c>
+      <c r="B349">
+        <v>273</v>
+      </c>
+      <c r="C349">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>457</v>
+      </c>
+      <c r="B350">
+        <v>168</v>
+      </c>
+      <c r="C350">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>458</v>
+      </c>
+      <c r="B351">
+        <v>120</v>
+      </c>
+      <c r="C351">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>459</v>
+      </c>
+      <c r="B352">
+        <v>216</v>
+      </c>
+      <c r="C352">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>460</v>
+      </c>
+      <c r="B353">
+        <v>276</v>
+      </c>
+      <c r="C353">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>461</v>
+      </c>
+      <c r="B354">
+        <v>261</v>
+      </c>
+      <c r="C354">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>464</v>
+      </c>
+      <c r="B355">
+        <v>320</v>
+      </c>
+      <c r="C355">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>465</v>
+      </c>
+      <c r="B356">
+        <v>279</v>
+      </c>
+      <c r="C356">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>466</v>
+      </c>
+      <c r="B357">
+        <v>210</v>
+      </c>
+      <c r="C357">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>468</v>
+      </c>
+      <c r="B358">
+        <v>180</v>
+      </c>
+      <c r="C358">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>470</v>
+      </c>
+      <c r="B359">
+        <v>282</v>
+      </c>
+      <c r="C359">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>471</v>
+      </c>
+      <c r="B360">
+        <v>255</v>
+      </c>
+      <c r="C360">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>475</v>
+      </c>
+      <c r="B361">
+        <v>133</v>
+      </c>
+      <c r="C361">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>475</v>
+      </c>
+      <c r="B362">
+        <v>285</v>
+      </c>
+      <c r="C362">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>476</v>
+      </c>
+      <c r="B363">
+        <v>224</v>
+      </c>
+      <c r="C363">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>477</v>
+      </c>
+      <c r="B364">
+        <v>252</v>
+      </c>
+      <c r="C364">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>480</v>
+      </c>
+      <c r="B365">
+        <v>288</v>
+      </c>
+      <c r="C365">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>481</v>
+      </c>
+      <c r="B366">
+        <v>31</v>
+      </c>
+      <c r="C366">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>481</v>
+      </c>
+      <c r="B367">
+        <v>156</v>
+      </c>
+      <c r="C367">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>481</v>
+      </c>
+      <c r="B368">
+        <v>185</v>
+      </c>
+      <c r="C368">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>481</v>
+      </c>
+      <c r="B369">
+        <v>319</v>
+      </c>
+      <c r="C369">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>482</v>
+      </c>
+      <c r="B370">
+        <v>240</v>
+      </c>
+      <c r="C370">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>485</v>
+      </c>
+      <c r="B371">
+        <v>44</v>
+      </c>
+      <c r="C371">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>485</v>
+      </c>
+      <c r="B372">
+        <v>93</v>
+      </c>
+      <c r="C372">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>485</v>
+      </c>
+      <c r="B373">
+        <v>291</v>
+      </c>
+      <c r="C373">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>485</v>
+      </c>
+      <c r="B374">
+        <v>325</v>
+      </c>
+      <c r="C374">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>488</v>
+      </c>
+      <c r="B375">
+        <v>88</v>
+      </c>
+      <c r="C375">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>490</v>
+      </c>
+      <c r="B376">
+        <v>294</v>
+      </c>
+      <c r="C376">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>492</v>
+      </c>
+      <c r="B377">
+        <v>108</v>
+      </c>
+      <c r="C377">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>493</v>
+      </c>
+      <c r="B378">
+        <v>132</v>
+      </c>
+      <c r="C378">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>493</v>
+      </c>
+      <c r="B379">
+        <v>155</v>
+      </c>
+      <c r="C379">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>493</v>
+      </c>
+      <c r="B380">
+        <v>232</v>
+      </c>
+      <c r="C380">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>493</v>
+      </c>
+      <c r="B381">
+        <v>340</v>
+      </c>
+      <c r="C381">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>494</v>
+      </c>
+      <c r="B382">
+        <v>190</v>
+      </c>
+      <c r="C382">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>495</v>
+      </c>
+      <c r="B383">
+        <v>297</v>
+      </c>
+      <c r="C383">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>500</v>
+      </c>
+      <c r="B384">
+        <v>140</v>
+      </c>
+      <c r="C384">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>500</v>
+      </c>
+      <c r="B385">
+        <v>176</v>
+      </c>
+      <c r="C385">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>500</v>
+      </c>
+      <c r="B386">
+        <v>300</v>
+      </c>
+      <c r="C386">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>505</v>
+      </c>
+      <c r="B387">
+        <v>100</v>
+      </c>
+      <c r="C387">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>505</v>
+      </c>
+      <c r="B388">
+        <v>217</v>
+      </c>
+      <c r="C388">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>505</v>
+      </c>
+      <c r="B389">
+        <v>303</v>
+      </c>
+      <c r="C389">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>505</v>
+      </c>
+      <c r="B390">
+        <v>336</v>
+      </c>
+      <c r="C390">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>507</v>
+      </c>
+      <c r="B391">
+        <v>195</v>
+      </c>
+      <c r="C391">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>507</v>
+      </c>
+      <c r="B392">
+        <v>357</v>
+      </c>
+      <c r="C392">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>509</v>
+      </c>
+      <c r="B393">
+        <v>220</v>
+      </c>
+      <c r="C393">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>510</v>
+      </c>
+      <c r="B394">
+        <v>78</v>
+      </c>
+      <c r="C394">
+        <v>504</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,38 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\python\maths\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\maths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1831340-341D-4AD3-9512-879789B41575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111E584F-CF7D-4C5C-813C-0646DB03309C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{60315A4A-3910-4112-8345-B96CA8C9ACF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{60315A4A-3910-4112-8345-B96CA8C9ACF2}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Линейное" sheetId="1" r:id="rId1"/>
     <sheet name="2 Теорема пифагора" sheetId="2" r:id="rId2"/>
+    <sheet name="3 Простые числа" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1903,7 +1894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B32AAEA-19E1-4F2D-817F-CDD40BD31D29}">
   <dimension ref="A1:C394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="L109" sqref="L109"/>
     </sheetView>
   </sheetViews>
@@ -6246,4 +6237,819 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB2600A-2F30-4924-BC03-405496762207}">
+  <dimension ref="A1:B100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>